--- a/results/mp/tinybert/corona/confidence/168/topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/168/topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,69 +52,69 @@
     <t>sc</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>better</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
@@ -127,16 +127,10 @@
     <t>help</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>protect</t>
+    <t>increase</t>
   </si>
   <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
 </sst>
 </file>
@@ -494,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,10 +496,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -563,13 +557,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -581,19 +575,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -613,13 +607,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7467532467532467</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C4">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="D4">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -631,19 +625,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -663,13 +657,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.296137339055794</v>
+        <v>0.1957364341085271</v>
       </c>
       <c r="C5">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="D5">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -681,19 +675,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>164</v>
+        <v>415</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -705,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -713,13 +707,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2441860465116279</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -731,19 +725,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>0.9</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -759,41 +753,17 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.1037037037037037</v>
-      </c>
-      <c r="C7">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>121</v>
-      </c>
       <c r="J7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8823529411764706</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="M7">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -805,21 +775,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L8">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="M8">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -831,21 +801,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8703703703703703</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -862,16 +832,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8571428571428571</v>
+        <v>0.8203125</v>
       </c>
       <c r="L10">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="M10">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -883,21 +853,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8148148148148148</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -909,21 +879,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.803921568627451</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -935,21 +905,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7586206896551724</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="L13">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="M13">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -961,21 +931,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7435897435897436</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -987,21 +957,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L15">
         <v>26</v>
       </c>
-      <c r="K15">
-        <v>0.72</v>
-      </c>
-      <c r="L15">
-        <v>18</v>
-      </c>
       <c r="M15">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1013,21 +983,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6986301369863014</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L16">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="M16">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1039,21 +1009,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6724137931034483</v>
+        <v>0.69375</v>
       </c>
       <c r="L17">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="M17">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1065,21 +1035,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.64</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L18">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="M18">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1091,21 +1061,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.625</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L19">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M19">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1117,21 +1087,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6153846153846154</v>
+        <v>0.6063829787234043</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1143,21 +1113,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6060606060606061</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1169,21 +1139,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5727699530516432</v>
+        <v>0.6</v>
       </c>
       <c r="L22">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1195,21 +1165,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5142857142857142</v>
+        <v>0.5300261096605744</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="M23">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1221,21 +1191,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>17</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5138888888888888</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L24">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="M24">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1247,21 +1217,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5038759689922481</v>
+        <v>0.45</v>
       </c>
       <c r="L25">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="M25">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1273,21 +1243,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>64</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.4203389830508474</v>
       </c>
       <c r="L26">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="M26">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1299,21 +1269,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>14</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4666666666666667</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1325,21 +1295,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.391304347826087</v>
+        <v>0.2887029288702929</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1351,33 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K29">
-        <v>0.3684210526315789</v>
-      </c>
-      <c r="L29">
-        <v>14</v>
-      </c>
-      <c r="M29">
-        <v>14</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>24</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
